--- a/biology/Botanique/Proboscidioides/Proboscidioides.xlsx
+++ b/biology/Botanique/Proboscidioides/Proboscidioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Proboscidioides (du grec « proboskis » qui signifie trompe) est un sous-genre de plantes à fleurs du genre Phalaenopsis et de la famille des orchidées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèces épiphytes ou lithophytes à feuillage caduc dans la nature avec une colonne se terminant par une excroissance proéminente en forme de trompe et l'extrémité du lobe médian sans appendice.
 Ce sous-genre est l'équivalent de la section Proboscidioides dans le classement des Phalaenopsis publié par  Sweet en 1980 ainsi que dans celui de  Rolfe datant de 1886  (Gardener's Chronicle).
@@ -543,7 +557,9 @@
           <t>Espèces botaniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Phalaenopsis lowii</t>
         </is>
